--- a/SensitivityAnalysisSpreadSheets/Unchock Time/UnchockTime10 aircraft 9_1_-10%.xlsx
+++ b/SensitivityAnalysisSpreadSheets/Unchock Time/UnchockTime10 aircraft 9_1_-10%.xlsx
@@ -78624,6 +78624,9 @@
           <t>Run 1</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>13.4165</v>
+      </c>
       <c r="C2" t="n">
         <v>438.5805555555555</v>
       </c>
@@ -78679,6 +78682,9 @@
           <t>Run 2</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>12.85516666666667</v>
+      </c>
       <c r="C3" t="n">
         <v>433.115</v>
       </c>
@@ -78734,6 +78740,9 @@
           <t>Run 3</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>12.57966666666667</v>
+      </c>
       <c r="C4" t="n">
         <v>419.8188888888889</v>
       </c>
@@ -78789,6 +78798,9 @@
           <t>Run 4</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>13.83383333333333</v>
+      </c>
       <c r="C5" t="n">
         <v>442.3222222222222</v>
       </c>
@@ -78844,6 +78856,9 @@
           <t>Run 5</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>13.8295</v>
+      </c>
       <c r="C6" t="n">
         <v>452.958888888889</v>
       </c>
@@ -78899,6 +78914,9 @@
           <t>Run 6</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>12.42316666666667</v>
+      </c>
       <c r="C7" t="n">
         <v>458.5188888888889</v>
       </c>
@@ -78954,6 +78972,9 @@
           <t>Run 7</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>13.05266666666667</v>
+      </c>
       <c r="C8" t="n">
         <v>441.3633333333333</v>
       </c>
@@ -79009,6 +79030,9 @@
           <t>Run 8</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>12.0605</v>
+      </c>
       <c r="C9" t="n">
         <v>440.0611111111112</v>
       </c>
@@ -79064,6 +79088,9 @@
           <t>Run 9</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>12.87016666666667</v>
+      </c>
       <c r="C10" t="n">
         <v>444.1755555555556</v>
       </c>
@@ -79119,6 +79146,9 @@
           <t>Run 10</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>13.7555</v>
+      </c>
       <c r="C11" t="n">
         <v>441.1561111111111</v>
       </c>
@@ -79174,6 +79204,9 @@
           <t>Run 11</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>12.73366666666667</v>
+      </c>
       <c r="C12" t="n">
         <v>436.8022222222222</v>
       </c>
@@ -79229,6 +79262,9 @@
           <t>Run 12</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>13.16683333333333</v>
+      </c>
       <c r="C13" t="n">
         <v>432.7977777777778</v>
       </c>
@@ -79284,6 +79320,9 @@
           <t>Run 13</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>13.6155</v>
+      </c>
       <c r="C14" t="n">
         <v>453.4472222222222</v>
       </c>
@@ -79339,6 +79378,9 @@
           <t>Run 14</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>13.292</v>
+      </c>
       <c r="C15" t="n">
         <v>410.6966666666667</v>
       </c>
@@ -79394,6 +79436,9 @@
           <t>Run 15</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>12.2755</v>
+      </c>
       <c r="C16" t="n">
         <v>401.6766666666666</v>
       </c>
@@ -79449,6 +79494,9 @@
           <t>Run 16</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>13.59266666666667</v>
+      </c>
       <c r="C17" t="n">
         <v>421.2122222222222</v>
       </c>
@@ -79504,6 +79552,9 @@
           <t>Run 17</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>13.28166666666667</v>
+      </c>
       <c r="C18" t="n">
         <v>446.6622222222222</v>
       </c>
@@ -79559,6 +79610,9 @@
           <t>Run 18</t>
         </is>
       </c>
+      <c r="B19" t="n">
+        <v>13.636</v>
+      </c>
       <c r="C19" t="n">
         <v>456.9216666666667</v>
       </c>
@@ -79614,6 +79668,9 @@
           <t>Run 19</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>13.0535</v>
+      </c>
       <c r="C20" t="n">
         <v>453.6033333333332</v>
       </c>
@@ -79669,6 +79726,9 @@
           <t>Run 20</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>14.50016666666667</v>
+      </c>
       <c r="C21" t="n">
         <v>446.4233333333333</v>
       </c>
@@ -79724,6 +79784,9 @@
           <t>Run 21</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>13.91583333333333</v>
+      </c>
       <c r="C22" t="n">
         <v>438.1822222222222</v>
       </c>
@@ -79779,6 +79842,9 @@
           <t>Run 22</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>13.89466666666667</v>
+      </c>
       <c r="C23" t="n">
         <v>436.4888888888888</v>
       </c>
@@ -79834,6 +79900,9 @@
           <t>Run 23</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>12.28333333333333</v>
+      </c>
       <c r="C24" t="n">
         <v>417.7972222222222</v>
       </c>
@@ -79889,6 +79958,9 @@
           <t>Run 24</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>12.73583333333333</v>
+      </c>
       <c r="C25" t="n">
         <v>450.5972222222222</v>
       </c>
@@ -79944,6 +80016,9 @@
           <t>Run 25</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>11.7785</v>
+      </c>
       <c r="C26" t="n">
         <v>415.7416666666667</v>
       </c>
@@ -79999,6 +80074,9 @@
           <t>Run 26</t>
         </is>
       </c>
+      <c r="B27" t="n">
+        <v>12.90633333333333</v>
+      </c>
       <c r="C27" t="n">
         <v>440.0705555555555</v>
       </c>
@@ -80054,6 +80132,9 @@
           <t>Run 27</t>
         </is>
       </c>
+      <c r="B28" t="n">
+        <v>12.225</v>
+      </c>
       <c r="C28" t="n">
         <v>419.045</v>
       </c>
@@ -80109,6 +80190,9 @@
           <t>Run 28</t>
         </is>
       </c>
+      <c r="B29" t="n">
+        <v>12.0385</v>
+      </c>
       <c r="C29" t="n">
         <v>423.9288888888889</v>
       </c>
@@ -80164,6 +80248,9 @@
           <t>Run 29</t>
         </is>
       </c>
+      <c r="B30" t="n">
+        <v>12.23966666666667</v>
+      </c>
       <c r="C30" t="n">
         <v>405.5577777777778</v>
       </c>
@@ -80218,6 +80305,9 @@
         <is>
           <t>Run 30</t>
         </is>
+      </c>
+      <c r="B31" t="n">
+        <v>13.11016666666667</v>
       </c>
       <c r="C31" t="n">
         <v>440.42</v>
